--- a/in/jxlsTemplate.xlsx
+++ b/in/jxlsTemplate.xlsx
@@ -54,19 +54,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">jx:if(condition="user.enabled", lastCell="B1", areas=["B13:B13","B14:B14"])</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">${user.name}</t>
   </si>
   <si>
-    <t xml:space="preserve">${user.enabled ? 'enabled' : 'disabled'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
@@ -119,6 +129,18 @@
   </si>
   <si>
     <t xml:space="preserve">Processing ${user.name} with email ${user.email} successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled</t>
   </si>
 </sst>
 </file>
@@ -129,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\.MM\.YYYY\ H:MM:SS"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +184,36 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF00A65D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFEF413D"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
@@ -182,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -197,6 +249,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -223,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,6 +291,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,10 +303,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,6 +311,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,6 +325,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,6 +352,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFEF413D"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A65D"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -281,105 +420,118 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="56.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="6" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="7.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A12:D12"/>
